--- a/inst/extdata/ParameterMapping.xlsx
+++ b/inst/extdata/ParameterMapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\1 ACASAK\MassWateR\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d8cbaaa4eaa566d/Documents/1 ACASAK/MassWateR/Design/Final logic docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E9221A-2E94-4B84-B205-247B9CC799B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{3C328D5D-32A1-4ABA-8DDE-3885AEBF8795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35AC89A4-165A-4110-A5E4-9CBF4A45A23A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{178F5C9C-564C-4FDF-AA7C-E06704DA2294}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{178F5C9C-564C-4FDF-AA7C-E06704DA2294}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -124,12 +124,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="D40" authorId="0" shapeId="0" xr:uid="{806BABA5-AFA3-4CB2-8D01-6921751553EC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Benjamen Wetherill:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Did not include mg/m3 because it is the same as ug/l.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="90">
   <si>
     <t>Water Temp</t>
   </si>
@@ -318,9 +342,6 @@
   </si>
   <si>
     <t>Cyanobacteria (probe)</t>
-  </si>
-  <si>
-    <t>Cyanobacteria (lab)</t>
   </si>
   <si>
     <t>POP</t>
@@ -411,12 +432,24 @@
       <t>, s.u., None</t>
     </r>
   </si>
+  <si>
+    <t>Phycocyanin</t>
+  </si>
+  <si>
+    <t>Phycoerythrin</t>
+  </si>
+  <si>
+    <t>Phycocyanin (probe)</t>
+  </si>
+  <si>
+    <t>mg/l, ug/l, umol/l, ppm, RFU</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,6 +478,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -519,10 +558,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -560,7 +603,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -666,7 +709,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -808,7 +851,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -816,24 +859,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84032A94-31D2-4739-AFB0-3D4EF11D54E8}">
-  <dimension ref="A1:D44"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" customWidth="1"/>
-    <col min="3" max="3" width="58.26953125" customWidth="1"/>
-    <col min="4" max="4" width="59.26953125" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" customWidth="1"/>
+    <col min="4" max="4" width="59.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -847,7 +891,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -861,7 +905,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -872,10 +916,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -889,7 +933,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -903,7 +947,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -917,7 +961,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -931,7 +975,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -942,10 +986,10 @@
         <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -956,10 +1000,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -970,38 +1014,38 @@
         <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1012,10 +1056,10 @@
         <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1026,10 +1070,10 @@
         <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1040,10 +1084,10 @@
         <v>39</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1054,10 +1098,10 @@
         <v>41</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1068,38 +1112,38 @@
         <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1110,10 +1154,10 @@
         <v>31</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1124,38 +1168,38 @@
         <v>42</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" t="s">
         <v>77</v>
       </c>
-      <c r="C22" t="s">
-        <v>78</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1166,24 +1210,24 @@
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -1194,10 +1238,10 @@
         <v>36</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -1208,10 +1252,10 @@
         <v>40</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1225,7 +1269,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1239,7 +1283,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1250,24 +1294,24 @@
         <v>27</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
         <v>67</v>
       </c>
-      <c r="C31" t="s">
-        <v>68</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1278,10 +1322,10 @@
         <v>51</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -1292,10 +1336,10 @@
         <v>30</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -1306,10 +1350,10 @@
         <v>16</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -1320,132 +1364,174 @@
         <v>17</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>20</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>20</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>69</v>
+      <c r="B39" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>71</v>
+        <v>20</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C44" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="3" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>83</v>
       </c>
-      <c r="C43" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="B47" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>54</v>
       </c>
     </row>
